--- a/nmadb/480612.xlsx
+++ b/nmadb/480612.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Study year</t>
   </si>
@@ -130,30 +130,6 @@
   </si>
   <si>
     <t>Nathan 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">–0,16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">–0,11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">–0,19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">–0,22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">–0,011 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">–0,09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">–0,1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">–0,21 </t>
   </si>
 </sst>
 </file>
@@ -506,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -685,8 +661,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
+      <c r="E8" s="3">
+        <v>-0.16</v>
       </c>
       <c r="F8">
         <v>0.05</v>
@@ -781,8 +757,8 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
+      <c r="E14" s="3">
+        <v>-0.11</v>
       </c>
       <c r="F14">
         <v>0.05</v>
@@ -925,8 +901,8 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>40</v>
+      <c r="E23" s="3">
+        <v>-0.19</v>
       </c>
       <c r="F23">
         <v>0.08</v>
@@ -987,8 +963,8 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>41</v>
+      <c r="E27" s="3">
+        <v>-0.22</v>
       </c>
       <c r="F27">
         <v>0.06</v>
@@ -1117,8 +1093,8 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>42</v>
+      <c r="E35" s="3">
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="F35">
         <v>4.2999999999999997E-2</v>
@@ -1233,8 +1209,8 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>43</v>
+      <c r="E42" s="3">
+        <v>-0.09</v>
       </c>
       <c r="F42">
         <v>0.04</v>
@@ -1349,8 +1325,8 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>44</v>
+      <c r="E49" s="3">
+        <v>-0.1</v>
       </c>
       <c r="F49">
         <v>0.06</v>
@@ -1569,8 +1545,8 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>45</v>
+      <c r="E63" s="3">
+        <v>-0.21</v>
       </c>
       <c r="F63">
         <v>0.05</v>
@@ -1603,8 +1579,8 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>44</v>
+      <c r="E65" s="3">
+        <v>-0.1</v>
       </c>
       <c r="F65">
         <v>0.56000000000000005</v>
